--- a/extended.xlsx
+++ b/extended.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,379 +436,129 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Количество</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Barcode</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Количество</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Артикул</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Имя</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Бренд</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Тип машины</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Количество капсул</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
         <v>4627198569254</v>
       </c>
-      <c r="B2" t="n">
-        <v>96</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1310150</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Кофе в капсулах Elite Coffee Collection Набор Арома для кофемашин Dolce Gusto 50 капсул</t>
         </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Elite Coffee Collection</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Dolce Gusto</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>96</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
         <v>4627198569261</v>
       </c>
-      <c r="B3" t="n">
-        <v>96</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1310250</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Кофе в капсулах Elite Coffee Collection Набор Эспрессо для кофемашин Dolce Gusto 50 капсул</t>
         </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Elite Coffee Collection</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Dolce Gusto</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>96</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
         <v>4627178825172</v>
       </c>
-      <c r="B4" t="n">
-        <v>96</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>111003100</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Комплект кофе в капсулах Elite Coffee Collection для кофемашин стандарта Nespresso, 100 капсул из Коллекции Вокруг Света.</t>
         </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Elite Coffee Collection</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Nespresso</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>96</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
         <v>4627178825141</v>
       </c>
-      <c r="B5" t="n">
-        <v>96</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>11100250</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Комплект кофе в капсулах Elite Coffee Collection для кофемашин стандарта Nespresso,100 капсул из Коллекции Ароматика.</t>
         </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Elite Coffee Collection</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Nespresso</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>64</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
         <v>4687201911722</v>
       </c>
-      <c r="B6" t="n">
-        <v>64</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1310830</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Кофе в капсулах Elite Coffee Collection Набор ТРИ АРОМАТА для кофемашин Dolce Gusto 30 капсул</t>
         </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Elite Coffee Collection</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Dolce Gusto</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>64</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
         <v>4603735982014</v>
       </c>
-      <c r="B7" t="n">
-        <v>64</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1311730</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Кофе в капсулах Elite Coffee Collection Молоко для КАПУЧИНО без сахара для кофемашин Dolce Gusto 30 капсул</t>
         </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Elite Coffee Collection</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Dolce Gusto</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4627187920066</v>
-      </c>
-      <c r="B8" t="n">
-        <v>128</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1310530</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Кофе в капсулах Elite Coffee Collection CREMA для кофемашин Dolce Gusto 30 капсул</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Elite Coffee Collection</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Dolce Gusto</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4627187920059</v>
-      </c>
-      <c r="B9" t="n">
-        <v>128</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1310430</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Кофе в капсулах Elite Coffee Collection LUNGO для кофемашин Dolce Gusto 30 капсул</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Elite Coffee Collection</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Dolce Gusto</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4627187920080</v>
-      </c>
-      <c r="B10" t="n">
-        <v>128</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1310330</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Кофе в капсулах Elite Coffee Collection CIOCCOLATА для кофемашин Dolce Gusto 30 капсул</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Elite Coffee Collection</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Dolce Gusto</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4687201911715</v>
-      </c>
-      <c r="B11" t="n">
-        <v>128</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1310730</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Кофе в капсулах Elite Coffee Collection Набор АРАБИКА для кофемашин Dolce Gusto 30 капсул</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Elite Coffee Collection</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Dolce Gusto</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4687201911708</v>
-      </c>
-      <c r="B12" t="n">
-        <v>128</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1310630</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Кофе в капсулах Elite Coffee Collection Набор РОБУСТА для кофемашин Dolce Gusto 30 капсул</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Elite Coffee Collection</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Dolce Gusto</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
